--- a/New Microsoft Office Excel Worksheet.xlsx
+++ b/New Microsoft Office Excel Worksheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>czzzzb</t>
   </si>
@@ -337,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -348,7 +348,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -360,9 +360,6 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
